--- a/xlsx/詹姆斯·瓦特_intext.xlsx
+++ b/xlsx/詹姆斯·瓦特_intext.xlsx
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%BF%83%E5%BC%8F%E8%AA%BF%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>離心式調速器</t>
+    <t>离心式调速器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pressure_volume_diagram</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83%E9%99%A2%E5%A3%AB</t>
   </si>
   <si>
-    <t>皇家學會院士</t>
+    <t>皇家学会院士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%B8%81%E5%A0%A1%E7%9A%87%E5%AE%B6%E5%AD%A6%E4%BC%9A</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>長老教會</t>
+    <t>长老教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AE%BA</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E6%AF%94%E9%81%9C</t>
   </si>
   <si>
-    <t>約翰·羅比遜</t>
+    <t>约翰·罗比逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%9C%BA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E7%86%B1</t>
   </si>
   <si>
-    <t>潛熱</t>
+    <t>潜热</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Roebuck</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%91%A8%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>圓周運動</t>
+    <t>圆周运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E5%85%89%E7%A4%BE</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
